--- a/Experiments/complex_coordination/gender_fr/test_complex_gender_fr.xlsx
+++ b/Experiments/complex_coordination/gender_fr/test_complex_gender_fr.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23020" windowHeight="10400" tabRatio="500"/>
+    <workbookView xWindow="6520" yWindow="0" windowWidth="23020" windowHeight="10400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -203,9 +203,6 @@
     <t>applications</t>
   </si>
   <si>
-    <t>﻿accessoires</t>
-  </si>
-  <si>
     <t>technologies</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>méthodes</t>
   </si>
   <si>
-    <t>﻿instruments</t>
-  </si>
-  <si>
     <t>principes</t>
   </si>
   <si>
@@ -341,15 +335,9 @@
     <t>intérêts</t>
   </si>
   <si>
-    <t>﻿rémunérations</t>
-  </si>
-  <si>
     <t>dividendes</t>
   </si>
   <si>
-    <t>﻿pénalités</t>
-  </si>
-  <si>
     <t>élevés</t>
   </si>
   <si>
@@ -368,9 +356,6 @@
     <t>histoires</t>
   </si>
   <si>
-    <t>rassemblements</t>
-  </si>
-  <si>
     <t>grèves</t>
   </si>
   <si>
@@ -606,9 +591,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>﻿exonérations</t>
-  </si>
-  <si>
     <t>rejetés</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -693,10 +675,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Nous avons visité</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Ils ont étudié</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -709,10 +687,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Elles ferment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Il déteste</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -733,14 +707,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Je savais bien que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a supposé que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Il a trouvé que</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -757,9 +723,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>﻿représentations</t>
-  </si>
-  <si>
     <t>Il dit que</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -796,10 +759,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Il a supposé que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Elles constatent que</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -828,10 +787,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Je connais</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Nous avons</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -888,15 +843,66 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>J' ai regardé</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>J' ai acheté</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>J' apprécie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous avons découvert</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>réductions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles approchent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>écrans</t>
+  </si>
+  <si>
+    <t>ordres</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il a estimé que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a compris que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>présentations</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>primes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrages</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai vendu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ignore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai considéré que</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -968,8 +974,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,6 +992,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,7 +1030,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,8 +1042,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1047,19 +1069,28 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1459,7 +1490,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1480,13 +1511,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1518,10 +1549,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1545,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1556,10 +1587,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1583,22 +1614,22 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="10" t="s">
-        <v>233</v>
+      <c r="A4" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1622,23 +1653,23 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1656,13 +1687,13 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -1673,10 +1704,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1700,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -1710,11 +1741,11 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
-        <v>217</v>
+      <c r="A7" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1738,13 +1769,13 @@
         <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1754,7 +1785,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1778,13 +1809,13 @@
         <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1794,13 +1825,13 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -1815,26 +1846,26 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10" t="s">
-        <v>218</v>
+      <c r="A10" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1852,33 +1883,33 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -1890,36 +1921,36 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
       <c r="J11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>223</v>
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1927,25 +1958,25 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
-        <v>220</v>
+      <c r="H12" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>256</v>
@@ -1954,10 +1985,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -1966,36 +1997,36 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -2004,36 +2035,36 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>71</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
         <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -2042,10 +2073,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
         <v>74</v>
-      </c>
-      <c r="I15" t="s">
-        <v>75</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
@@ -2059,19 +2090,19 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -2080,36 +2111,36 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
         <v>78</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
       </c>
       <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
         <v>80</v>
-      </c>
-      <c r="L16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -2118,36 +2149,36 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
         <v>84</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
         <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -2155,37 +2186,37 @@
       <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
-        <v>89</v>
+      <c r="H18" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>241</v>
+        <v>91</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -2194,36 +2225,36 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -2232,36 +2263,36 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="J20" t="s">
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -2270,38 +2301,38 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
-        <v>108</v>
+      <c r="D22" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -2310,36 +2341,36 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -2348,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
         <v>52</v>
@@ -2357,27 +2388,27 @@
         <v>6</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -2386,36 +2417,36 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -2424,19 +2455,19 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J25" t="s">
         <v>6</v>
       </c>
       <c r="K25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" t="s">
         <v>55</v>
-      </c>
-      <c r="L25" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2467,140 +2498,140 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2608,64 +2639,64 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2673,7 +2704,7 @@
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -2687,7 +2718,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2701,10 +2732,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2715,7 +2746,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2724,140 +2755,140 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">

--- a/Experiments/complex_coordination/gender_fr/test_complex_gender_fr.xlsx
+++ b/Experiments/complex_coordination/gender_fr/test_complex_gender_fr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="0" windowWidth="23020" windowHeight="10400" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -711,198 +711,198 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Il dit que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils annoncent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles disent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>considérés</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>considérées</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intéressants</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intéressantes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils trouvent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je croyais que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles constatent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils ont franchi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles ont cherché</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a subi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il a respecté</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a observé</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous achetons</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous avons</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils aiment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles évitent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il réalise</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle recherche</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Det</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle pensait que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils ont dit que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a cru que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a annoncé que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils croient que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles ont indiqué que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je dis que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous pensons que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai acheté</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' apprécie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous avons découvert</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>réductions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles approchent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>écrans</t>
+  </si>
+  <si>
+    <t>ordres</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il a estimé que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a compris que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>primes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrages</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai vendu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ignore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai considéré que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>spectacles</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>produits</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>produites</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il dit que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils annoncent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles disent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>considérés</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>considérées</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>intéressants</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>intéressantes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils trouvent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Je croyais que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles constatent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils ont franchi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles ont cherché</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a subi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il a respecté</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a observé</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous achetons</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous avons</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils aiment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles évitent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il réalise</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle recherche</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Det</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle pensait que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils ont dit que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a cru que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a annoncé que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils croient que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles ont indiqué que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Je dis que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous pensons que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai acheté</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' apprécie</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous avons découvert</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>réductions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles approchent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>écrans</t>
-  </si>
-  <si>
-    <t>ordres</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il a estimé que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a compris que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>présentations</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>primes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrages</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai vendu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ignore</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai considéré que</t>
+    <t>cérémonies</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>différents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>différentes</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1030,8 +1030,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1075,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="29">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1084,6 +1098,13 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1091,6 +1112,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1489,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1517,7 +1545,7 @@
         <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1549,7 +1577,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>199</v>
@@ -1587,10 +1615,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1626,10 +1654,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1666,7 +1694,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>200</v>
@@ -1704,10 +1732,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1742,10 +1770,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1785,7 +1813,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1846,7 +1874,7 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J9" t="s">
         <v>208</v>
@@ -1862,7 +1890,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>202</v>
@@ -1883,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
@@ -1903,7 +1931,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1938,10 +1966,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1950,7 +1978,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1959,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
@@ -1968,18 +1996,18 @@
         <v>208</v>
       </c>
       <c r="K12" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2014,10 +2042,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2052,7 +2080,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>203</v>
@@ -2090,10 +2118,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -2128,7 +2156,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>204</v>
@@ -2187,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I18" t="s">
         <v>88</v>
@@ -2207,7 +2235,7 @@
         <v>91</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2234,18 +2262,18 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18">
       <c r="A20" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -2254,7 +2282,7 @@
         <v>96</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -2266,7 +2294,7 @@
         <v>97</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J20" t="s">
         <v>6</v>
@@ -2280,10 +2308,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2310,26 +2338,26 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
         <v>104</v>
@@ -2361,7 +2389,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2396,10 +2424,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2434,10 +2462,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
